--- a/ITX-Mainboard/Wrap030-ITX/ProductionFiles/BOM_Wrap030.xlsx
+++ b/ITX-Mainboard/Wrap030-ITX/ProductionFiles/BOM_Wrap030.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="206">
   <si>
     <t xml:space="preserve">Comment</t>
   </si>
@@ -73,13 +73,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">100nF 16V MLCC</t>
+    <t xml:space="preserve">100nF 16V</t>
   </si>
   <si>
     <t xml:space="preserve">C1</t>
   </si>
   <si>
-    <t xml:space="preserve">0402</t>
+    <t xml:space="preserve">C 0402</t>
   </si>
   <si>
     <t xml:space="preserve">C1525</t>
@@ -118,7 +118,7 @@
     <t xml:space="preserve">C12</t>
   </si>
   <si>
-    <t xml:space="preserve">1uF 25V MLCC</t>
+    <t xml:space="preserve">1uF 25V</t>
   </si>
   <si>
     <t xml:space="preserve">C13</t>
@@ -334,7 +334,7 @@
     <t xml:space="preserve">C92</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2nF 50V MLCC</t>
+    <t xml:space="preserve">2.2nF 50V</t>
   </si>
   <si>
     <t xml:space="preserve">C93</t>
@@ -391,33 +391,302 @@
     <t xml:space="preserve">C117</t>
   </si>
   <si>
-    <t xml:space="preserve">10kΩ 125mW Chip Resistor</t>
+    <t xml:space="preserve">1N4148W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOD-123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C81598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10k 62.5mW</t>
   </si>
   <si>
     <t xml:space="preserve">R1</t>
   </si>
   <si>
-    <t xml:space="preserve">0805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C17414</t>
+    <t xml:space="preserve">R 0402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C25744</t>
   </si>
   <si>
     <t xml:space="preserve">R2</t>
   </si>
   <si>
     <t xml:space="preserve">R3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">220R 62.5mW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C25091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1k 62.5mW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C11702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33R 100mW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R 0603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75R 62.5mW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C25133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R79</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -441,19 +710,12 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
+      <family val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -526,48 +788,32 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -648,1462 +894,2557 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D103"/>
+  <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A144" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D105" activeCellId="0" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8828125" defaultRowHeight="20" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="12.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="36.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="24.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.47"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="10" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="8" t="s">
+    <row r="2" s="6" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" s="10" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" s="6" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" s="10" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" s="6" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" s="10" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" s="6" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" s="10" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" s="6" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" s="10" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" s="6" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" s="10" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="8" t="s">
+      <c r="C7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" s="6" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="C8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="C9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="C11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="8" t="s">
+      <c r="A12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="C12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="8" t="s">
+      <c r="A13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="C13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="8" t="s">
+      <c r="C14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="8" t="s">
+      <c r="A15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="8" t="s">
+      <c r="C15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="8" t="s">
+      <c r="C16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="8" t="s">
+      <c r="A17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="8" t="s">
+      <c r="C17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="8" t="s">
+      <c r="A18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="8" t="s">
+      <c r="C18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="8" t="s">
+      <c r="C19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="8" t="s">
+      <c r="C20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="8" t="s">
+      <c r="A21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="8" t="s">
+      <c r="C21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="8" t="s">
+      <c r="A22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="8" t="s">
+      <c r="C22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="8" t="s">
+      <c r="A23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="8" t="s">
+      <c r="C23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="8" t="s">
+      <c r="A24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="8" t="s">
+      <c r="C24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="8" t="s">
+      <c r="A25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="8" t="s">
+      <c r="C25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="8" t="s">
+      <c r="A26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="8" t="s">
+      <c r="C26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="8" t="s">
+      <c r="A27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="8" t="s">
+      <c r="C27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="8" t="s">
+      <c r="A28" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="8" t="s">
+      <c r="C28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="8" t="s">
+      <c r="A29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="8" t="s">
+      <c r="C29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="8" t="s">
+      <c r="A30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="8" t="s">
+      <c r="C30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="8" t="s">
+      <c r="A31" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="8" t="s">
+      <c r="C31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="8" t="s">
+      <c r="A32" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="8" t="s">
+      <c r="C32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="8" t="s">
+      <c r="A33" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="8" t="s">
+      <c r="C33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="8" t="s">
+      <c r="A34" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="8" t="s">
+      <c r="C34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="8" t="s">
+      <c r="A35" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="8" t="s">
+      <c r="C35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="8" t="s">
+      <c r="A36" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="8" t="s">
+      <c r="C36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="8" t="s">
+      <c r="A37" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="8" t="s">
+      <c r="C37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="8" t="s">
+      <c r="A38" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="8" t="s">
+      <c r="C38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="8" t="s">
+      <c r="A39" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="8" t="s">
+      <c r="C39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="8" t="s">
+      <c r="A40" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="8" t="s">
+      <c r="C40" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="8" t="s">
+      <c r="C41" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="8" t="s">
+      <c r="C42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" s="8" t="s">
+      <c r="C43" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="8" t="s">
+      <c r="A44" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="8" t="s">
+      <c r="C44" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" s="8" t="s">
+      <c r="A45" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" s="8" t="s">
+      <c r="C45" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" s="8" t="s">
+      <c r="A46" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" s="8" t="s">
+      <c r="C46" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" s="8" t="s">
+      <c r="A47" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" s="8" t="s">
+      <c r="C47" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48" s="8" t="s">
+      <c r="A48" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C48" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" s="8" t="s">
+      <c r="C48" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B49" s="8" t="s">
+      <c r="A49" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" s="8" t="s">
+      <c r="C49" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B50" s="8" t="s">
+      <c r="A50" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C50" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" s="8" t="s">
+      <c r="C50" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" s="8" t="s">
+      <c r="A51" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C51" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" s="8" t="s">
+      <c r="C51" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C52" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" s="8" t="s">
+      <c r="C52" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B53" s="8" t="s">
+      <c r="A53" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C53" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="8" t="s">
+      <c r="C53" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B54" s="8" t="s">
+      <c r="A54" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54" s="8" t="s">
+      <c r="C54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B55" s="8" t="s">
+      <c r="A55" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C55" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D55" s="8" t="s">
+      <c r="C55" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B56" s="8" t="s">
+      <c r="A56" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C56" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D56" s="8" t="s">
+      <c r="C56" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B57" s="8" t="s">
+      <c r="A57" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C57" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D57" s="8" t="s">
+      <c r="C57" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B58" s="8" t="s">
+      <c r="A58" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C58" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58" s="8" t="s">
+      <c r="C58" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B59" s="8" t="s">
+      <c r="A59" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C59" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D59" s="8" t="s">
+      <c r="C59" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B60" s="8" t="s">
+      <c r="A60" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C60" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D60" s="8" t="s">
+      <c r="C60" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B61" s="8" t="s">
+      <c r="A61" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C61" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D61" s="8" t="s">
+      <c r="C61" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B62" s="8" t="s">
+      <c r="A62" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C62" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D62" s="8" t="s">
+      <c r="C62" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B63" s="8" t="s">
+      <c r="A63" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C63" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D63" s="8" t="s">
+      <c r="C63" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B64" s="8" t="s">
+      <c r="A64" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C64" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D64" s="8" t="s">
+      <c r="C64" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C65" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D65" s="8" t="s">
+      <c r="C65" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C66" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D66" s="8" t="s">
+      <c r="C66" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B67" s="8" t="s">
+      <c r="A67" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C67" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D67" s="8" t="s">
+      <c r="C67" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="7" t="s">
+      <c r="A68" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C68" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D68" s="8" t="s">
+      <c r="C68" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B69" s="8" t="s">
+      <c r="A69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C69" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D69" s="8" t="s">
+      <c r="C69" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B70" s="8" t="s">
+      <c r="A70" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C70" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D70" s="8" t="s">
+      <c r="C70" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B71" s="8" t="s">
+      <c r="A71" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C71" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D71" s="8" t="s">
+      <c r="C71" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B72" s="8" t="s">
+      <c r="A72" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C72" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D72" s="8" t="s">
+      <c r="C72" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B73" s="8" t="s">
+      <c r="A73" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C73" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D73" s="8" t="s">
+      <c r="C73" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B74" s="8" t="s">
+      <c r="A74" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C74" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D74" s="8" t="s">
+      <c r="C74" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B75" s="8" t="s">
+      <c r="A75" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C75" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D75" s="8" t="s">
+      <c r="C75" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B76" s="8" t="s">
+      <c r="A76" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C76" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D76" s="8" t="s">
+      <c r="C76" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B77" s="8" t="s">
+      <c r="A77" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C77" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D77" s="8" t="s">
+      <c r="C77" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B78" s="8" t="s">
+      <c r="A78" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C78" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D78" s="8" t="s">
+      <c r="C78" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B79" s="8" t="s">
+      <c r="A79" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C79" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D79" s="8" t="s">
+      <c r="C79" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B80" s="8" t="s">
+      <c r="A80" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C80" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D80" s="8" t="s">
+      <c r="C80" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B81" s="8" t="s">
+      <c r="A81" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C81" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D81" s="8" t="s">
+      <c r="C81" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B82" s="8" t="s">
+      <c r="A82" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C82" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D82" s="8" t="s">
+      <c r="C82" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="7" t="s">
+      <c r="A83" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C83" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D83" s="8" t="s">
+      <c r="C83" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="7" t="s">
+      <c r="A84" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C84" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D84" s="8" t="s">
+      <c r="C84" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="7" t="s">
+      <c r="A85" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B85" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C85" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D85" s="8" t="s">
+      <c r="C85" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="7" t="s">
+      <c r="A86" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B86" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C86" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D86" s="8" t="s">
+      <c r="C86" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="7" t="s">
+      <c r="A87" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B87" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C87" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D87" s="8" t="s">
+      <c r="C87" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="7" t="s">
+      <c r="A88" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="B88" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C88" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D88" s="8" t="s">
+      <c r="C88" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="7" t="s">
+      <c r="A89" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B89" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C89" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D89" s="8" t="s">
+      <c r="C89" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="7" t="s">
+      <c r="A90" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="B90" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C90" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D90" s="8" t="s">
+      <c r="C90" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="7" t="s">
+      <c r="A91" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C91" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D91" s="8" t="s">
+      <c r="C91" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B92" s="8" t="s">
+      <c r="A92" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C92" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D92" s="8" t="s">
+      <c r="C92" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B93" s="8" t="s">
+      <c r="A93" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B93" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C93" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D93" s="8" t="s">
+      <c r="C93" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="7" t="s">
+      <c r="A94" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B94" s="8" t="s">
+      <c r="B94" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C94" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D94" s="8" t="s">
+      <c r="C94" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B95" s="8" t="s">
+      <c r="A95" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B95" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C95" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D95" s="8" t="s">
+      <c r="C95" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B96" s="8" t="s">
+      <c r="A96" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C96" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D96" s="8" t="s">
+      <c r="C96" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B97" s="8" t="s">
+      <c r="A97" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C97" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D97" s="8" t="s">
+      <c r="C97" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B98" s="8" t="s">
+      <c r="A98" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C98" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D98" s="8" t="s">
+      <c r="C98" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B99" s="8" t="s">
+      <c r="A99" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C99" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D99" s="8" t="s">
+      <c r="C99" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B100" s="8" t="s">
+      <c r="A100" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C100" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D100" s="8" t="s">
+      <c r="C100" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="7" t="s">
+      <c r="A101" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="B101" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C101" s="9" t="s">
+      <c r="C101" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D101" s="8" t="s">
+      <c r="D101" s="5" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="7" t="s">
+      <c r="A102" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="B102" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C102" s="9" t="s">
+      <c r="C102" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D102" s="8" t="s">
+      <c r="D102" s="5" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B103" s="8" t="s">
+      <c r="A103" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C103" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
+      <c r="B103" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A104" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A105" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A106" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A107" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A108" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A109" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A110" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A111" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A112" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A113" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A114" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A115" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A116" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A117" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A118" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A119" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A120" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A121" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A122" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A123" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A124" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A125" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A126" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A127" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A128" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A129" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A130" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A131" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A132" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A133" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A134" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A135" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A136" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A137" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A138" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A139" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A140" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A141" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A142" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A143" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A144" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A145" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A146" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A147" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A148" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A149" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A150" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A151" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A152" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A153" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A154" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A155" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A156" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A157" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A158" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A159" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A160" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A161" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A162" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A163" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A164" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A165" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A166" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A167" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A168" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D168" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A169" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A170" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A171" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A172" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A173" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A174" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D174" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A175" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A176" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A177" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D177" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A178" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D178" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A179" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A180" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D180" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A181" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
